--- a/AMZN.xlsx
+++ b/AMZN.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Michael\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Michael\Desktop\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F54BA25-1D80-4BE6-B07A-BE7A69ECD64C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C54BAD0-3017-4957-ADAC-847E5359B4B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{319C79D3-530A-422D-B7D4-1569BBD88715}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{319C79D3-530A-422D-B7D4-1569BBD88715}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -853,7 +853,7 @@
   <dimension ref="J2:L11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K7" sqref="K7"/>
+      <selection activeCell="K6" sqref="K6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -948,10 +948,10 @@
   <dimension ref="A1:DN66"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="AQ4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="DI33" sqref="DI33"/>
+      <selection pane="bottomRight" activeCell="BA30" sqref="BA30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -4186,31 +4186,31 @@
       </c>
       <c r="AX30" s="2">
         <f>+AW45*$BG$44</f>
-        <v>704.31143524999959</v>
+        <v>1408.6228704999992</v>
       </c>
       <c r="AY30" s="2">
         <f t="shared" ref="AY30:BD30" si="151">+AX45*$BG$44</f>
-        <v>1241.3312733746254</v>
+        <v>2494.6358411485003</v>
       </c>
       <c r="AZ30" s="2">
         <f t="shared" si="151"/>
-        <v>1972.5370978135611</v>
+        <v>3978.353667678527</v>
       </c>
       <c r="BA30" s="2">
         <f t="shared" si="151"/>
-        <v>2943.6855625103094</v>
+        <v>5954.7494787597288</v>
       </c>
       <c r="BB30" s="2">
         <f t="shared" si="151"/>
-        <v>4212.5043671692456</v>
+        <v>8543.5751746538426</v>
       </c>
       <c r="BC30" s="2">
         <f t="shared" si="151"/>
-        <v>5709.477043090892</v>
+        <v>11611.148730224375</v>
       </c>
       <c r="BD30" s="2">
         <f t="shared" si="151"/>
-        <v>7474.3299084460177</v>
+        <v>15241.182879615897</v>
       </c>
     </row>
     <row r="31" spans="2:56" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -4343,31 +4343,31 @@
       </c>
       <c r="AX31" s="4">
         <f t="shared" si="162"/>
-        <v>63178.804485250075</v>
+        <v>63883.115920500073</v>
       </c>
       <c r="AY31" s="4">
         <f t="shared" si="162"/>
-        <v>86024.214639874772</v>
+        <v>87277.519207648642</v>
       </c>
       <c r="AZ31" s="4">
         <f t="shared" si="162"/>
-        <v>114252.76055255864</v>
+        <v>116258.57712242361</v>
       </c>
       <c r="BA31" s="4">
         <f t="shared" si="162"/>
-        <v>149272.80054811016</v>
+        <v>152283.86446435959</v>
       </c>
       <c r="BB31" s="4">
         <f t="shared" si="162"/>
-        <v>176114.43246137025</v>
+        <v>180445.50326885484</v>
       </c>
       <c r="BC31" s="4">
         <f t="shared" si="162"/>
-        <v>207629.74886530882</v>
+        <v>213531.42055244232</v>
       </c>
       <c r="BD31" s="4">
         <f t="shared" si="162"/>
-        <v>244699.5991566279</v>
+        <v>252466.45212779776</v>
       </c>
     </row>
     <row r="32" spans="2:56" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -4499,31 +4499,31 @@
       </c>
       <c r="AX32" s="2">
         <f>+AX31*0.15</f>
-        <v>9476.8206727875113</v>
+        <v>9582.4673880750106</v>
       </c>
       <c r="AY32" s="2">
         <f t="shared" ref="AY32:BD32" si="167">+AY31*0.15</f>
-        <v>12903.632195981216</v>
+        <v>13091.627881147297</v>
       </c>
       <c r="AZ32" s="2">
         <f t="shared" si="167"/>
-        <v>17137.914082883795</v>
+        <v>17438.786568363539</v>
       </c>
       <c r="BA32" s="2">
         <f t="shared" si="167"/>
-        <v>22390.920082216522</v>
+        <v>22842.579669653936</v>
       </c>
       <c r="BB32" s="2">
         <f t="shared" si="167"/>
-        <v>26417.164869205535</v>
+        <v>27066.825490328225</v>
       </c>
       <c r="BC32" s="2">
         <f t="shared" si="167"/>
-        <v>31144.462329796323</v>
+        <v>32029.713082866347</v>
       </c>
       <c r="BD32" s="2">
         <f t="shared" si="167"/>
-        <v>36704.939873494186</v>
+        <v>37869.967819169666</v>
       </c>
     </row>
     <row r="33" spans="2:118" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -4656,279 +4656,279 @@
       </c>
       <c r="AX33" s="4">
         <f t="shared" ref="AX33:BD33" si="179">AX31-AX32</f>
-        <v>53701.983812462568</v>
+        <v>54300.648532425061</v>
       </c>
       <c r="AY33" s="4">
         <f t="shared" si="179"/>
-        <v>73120.582443893552</v>
+        <v>74185.89132650134</v>
       </c>
       <c r="AZ33" s="4">
         <f t="shared" si="179"/>
-        <v>97114.846469674842</v>
+        <v>98819.790554060077</v>
       </c>
       <c r="BA33" s="4">
         <f t="shared" si="179"/>
-        <v>126881.88046589363</v>
+        <v>129441.28479470566</v>
       </c>
       <c r="BB33" s="4">
         <f t="shared" si="179"/>
-        <v>149697.26759216472</v>
+        <v>153378.67777852662</v>
       </c>
       <c r="BC33" s="4">
         <f t="shared" si="179"/>
-        <v>176485.28653551251</v>
+        <v>181501.70746957598</v>
       </c>
       <c r="BD33" s="4">
         <f t="shared" si="179"/>
-        <v>207994.65928313372</v>
+        <v>214596.4843086281</v>
       </c>
       <c r="BE33" s="2">
         <f>+BD33*(1+$BG$45)</f>
-        <v>222554.2854329531</v>
+        <v>218888.41399480068</v>
       </c>
       <c r="BF33" s="2">
         <f t="shared" ref="BF33:DN33" si="180">+BE33*(1+$BG$45)</f>
-        <v>238133.08541325983</v>
+        <v>223266.18227469671</v>
       </c>
       <c r="BG33" s="2">
         <f t="shared" si="180"/>
-        <v>254802.40139218804</v>
+        <v>227731.50592019066</v>
       </c>
       <c r="BH33" s="2">
         <f t="shared" si="180"/>
-        <v>272638.56948964123</v>
+        <v>232286.13603859447</v>
       </c>
       <c r="BI33" s="2">
         <f t="shared" si="180"/>
-        <v>291723.26935391611</v>
+        <v>236931.85875936635</v>
       </c>
       <c r="BJ33" s="2">
         <f t="shared" si="180"/>
-        <v>312143.89820869028</v>
+        <v>241670.49593455368</v>
       </c>
       <c r="BK33" s="2">
         <f t="shared" si="180"/>
-        <v>333993.97108329862</v>
+        <v>246503.90585324477</v>
       </c>
       <c r="BL33" s="2">
         <f t="shared" si="180"/>
-        <v>357373.54905912955</v>
+        <v>251433.98397030967</v>
       </c>
       <c r="BM33" s="2">
         <f t="shared" si="180"/>
-        <v>382389.69749326864</v>
+        <v>256462.66364971586</v>
       </c>
       <c r="BN33" s="2">
         <f t="shared" si="180"/>
-        <v>409156.9763177975</v>
+        <v>261591.9169227102</v>
       </c>
       <c r="BO33" s="2">
         <f t="shared" si="180"/>
-        <v>437797.96466004336</v>
+        <v>266823.75526116439</v>
       </c>
       <c r="BP33" s="2">
         <f t="shared" si="180"/>
-        <v>468443.8221862464</v>
+        <v>272160.2303663877</v>
       </c>
       <c r="BQ33" s="2">
         <f t="shared" si="180"/>
-        <v>501234.88973928365</v>
+        <v>277603.43497371546</v>
       </c>
       <c r="BR33" s="2">
         <f t="shared" si="180"/>
-        <v>536321.33202103351</v>
+        <v>283155.50367318979</v>
       </c>
       <c r="BS33" s="2">
         <f t="shared" si="180"/>
-        <v>573863.82526250591</v>
+        <v>288818.6137466536</v>
       </c>
       <c r="BT33" s="2">
         <f t="shared" si="180"/>
-        <v>614034.29303088132</v>
+        <v>294594.98602158669</v>
       </c>
       <c r="BU33" s="2">
         <f t="shared" si="180"/>
-        <v>657016.6935430431</v>
+        <v>300486.88574201841</v>
       </c>
       <c r="BV33" s="2">
         <f t="shared" si="180"/>
-        <v>703007.86209105619</v>
+        <v>306496.6234568588</v>
       </c>
       <c r="BW33" s="2">
         <f t="shared" si="180"/>
-        <v>752218.41243743012</v>
+        <v>312626.55592599598</v>
       </c>
       <c r="BX33" s="2">
         <f t="shared" si="180"/>
-        <v>804873.70130805031</v>
+        <v>318879.08704451594</v>
       </c>
       <c r="BY33" s="2">
         <f t="shared" si="180"/>
-        <v>861214.86039961386</v>
+        <v>325256.66878540628</v>
       </c>
       <c r="BZ33" s="2">
         <f t="shared" si="180"/>
-        <v>921499.90062758687</v>
+        <v>331761.80216111441</v>
       </c>
       <c r="CA33" s="2">
         <f t="shared" si="180"/>
-        <v>986004.89367151796</v>
+        <v>338397.03820433671</v>
       </c>
       <c r="CB33" s="2">
         <f t="shared" si="180"/>
-        <v>1055025.2362285242</v>
+        <v>345164.97896842344</v>
       </c>
       <c r="CC33" s="2">
         <f t="shared" si="180"/>
-        <v>1128877.0027645209</v>
+        <v>352068.27854779194</v>
       </c>
       <c r="CD33" s="2">
         <f t="shared" si="180"/>
-        <v>1207898.3929580376</v>
+        <v>359109.64411874779</v>
       </c>
       <c r="CE33" s="2">
         <f t="shared" si="180"/>
-        <v>1292451.2804651002</v>
+        <v>366291.83700112277</v>
       </c>
       <c r="CF33" s="2">
         <f t="shared" si="180"/>
-        <v>1382922.8700976572</v>
+        <v>373617.67374114523</v>
       </c>
       <c r="CG33" s="2">
         <f t="shared" si="180"/>
-        <v>1479727.4710044933</v>
+        <v>381090.02721596812</v>
       </c>
       <c r="CH33" s="2">
         <f t="shared" si="180"/>
-        <v>1583308.3939748078</v>
+        <v>388711.8277602875</v>
       </c>
       <c r="CI33" s="2">
         <f t="shared" si="180"/>
-        <v>1694139.9815530444</v>
+        <v>396486.06431549328</v>
       </c>
       <c r="CJ33" s="2">
         <f t="shared" si="180"/>
-        <v>1812729.7802617576</v>
+        <v>404415.78560180316</v>
       </c>
       <c r="CK33" s="2">
         <f t="shared" si="180"/>
-        <v>1939620.8648800808</v>
+        <v>412504.10131383926</v>
       </c>
       <c r="CL33" s="2">
         <f t="shared" si="180"/>
-        <v>2075394.3254216865</v>
+        <v>420754.18334011605</v>
       </c>
       <c r="CM33" s="2">
         <f t="shared" si="180"/>
-        <v>2220671.9282012046</v>
+        <v>429169.26700691838</v>
       </c>
       <c r="CN33" s="2">
         <f t="shared" si="180"/>
-        <v>2376118.9631752889</v>
+        <v>437752.65234705678</v>
       </c>
       <c r="CO33" s="2">
         <f t="shared" si="180"/>
-        <v>2542447.2905975594</v>
+        <v>446507.70539399789</v>
       </c>
       <c r="CP33" s="2">
         <f t="shared" si="180"/>
-        <v>2720418.6009393889</v>
+        <v>455437.85950187786</v>
       </c>
       <c r="CQ33" s="2">
         <f t="shared" si="180"/>
-        <v>2910847.9030051464</v>
+        <v>464546.61669191543</v>
       </c>
       <c r="CR33" s="2">
         <f t="shared" si="180"/>
-        <v>3114607.2562155067</v>
+        <v>473837.54902575375</v>
       </c>
       <c r="CS33" s="2">
         <f t="shared" si="180"/>
-        <v>3332629.7641505925</v>
+        <v>483314.30000626884</v>
       </c>
       <c r="CT33" s="2">
         <f t="shared" si="180"/>
-        <v>3565913.8476411342</v>
+        <v>492980.58600639424</v>
       </c>
       <c r="CU33" s="2">
         <f t="shared" si="180"/>
-        <v>3815527.8169760136</v>
+        <v>502840.19772652211</v>
       </c>
       <c r="CV33" s="2">
         <f t="shared" si="180"/>
-        <v>4082614.7641643346</v>
+        <v>512897.00168105256</v>
       </c>
       <c r="CW33" s="2">
         <f t="shared" si="180"/>
-        <v>4368397.7976558385</v>
+        <v>523154.94171467359</v>
       </c>
       <c r="CX33" s="2">
         <f t="shared" si="180"/>
-        <v>4674185.6434917478</v>
+        <v>533618.04054896708</v>
       </c>
       <c r="CY33" s="2">
         <f t="shared" si="180"/>
-        <v>5001378.6385361701</v>
+        <v>544290.40135994647</v>
       </c>
       <c r="CZ33" s="2">
         <f t="shared" si="180"/>
-        <v>5351475.1432337025</v>
+        <v>555176.20938714535</v>
       </c>
       <c r="DA33" s="2">
         <f t="shared" si="180"/>
-        <v>5726078.4032600624</v>
+        <v>566279.73357488832</v>
       </c>
       <c r="DB33" s="2">
         <f t="shared" si="180"/>
-        <v>6126903.8914882671</v>
+        <v>577605.32824638614</v>
       </c>
       <c r="DC33" s="2">
         <f t="shared" si="180"/>
-        <v>6555787.1638924461</v>
+        <v>589157.43481131387</v>
       </c>
       <c r="DD33" s="2">
         <f t="shared" si="180"/>
-        <v>7014692.2653649179</v>
+        <v>600940.58350754017</v>
       </c>
       <c r="DE33" s="2">
         <f t="shared" si="180"/>
-        <v>7505720.7239404628</v>
+        <v>612959.39517769101</v>
       </c>
       <c r="DF33" s="2">
         <f t="shared" si="180"/>
-        <v>8031121.1746162958</v>
+        <v>625218.58308124484</v>
       </c>
       <c r="DG33" s="2">
         <f t="shared" si="180"/>
-        <v>8593299.6568394378</v>
+        <v>637722.95474286971</v>
       </c>
       <c r="DH33" s="2">
         <f t="shared" si="180"/>
-        <v>9194830.6328181997</v>
+        <v>650477.41383772716</v>
       </c>
       <c r="DI33" s="2">
         <f t="shared" si="180"/>
-        <v>9838468.7771154735</v>
+        <v>663486.96211448172</v>
       </c>
       <c r="DJ33" s="2">
         <f t="shared" si="180"/>
-        <v>10527161.591513557</v>
+        <v>676756.7013567714</v>
       </c>
       <c r="DK33" s="2">
         <f t="shared" si="180"/>
-        <v>11264062.902919507</v>
+        <v>690291.83538390684</v>
       </c>
       <c r="DL33" s="2">
         <f t="shared" si="180"/>
-        <v>12052547.306123873</v>
+        <v>704097.672091585</v>
       </c>
       <c r="DM33" s="2">
         <f t="shared" si="180"/>
-        <v>12896225.617552545</v>
+        <v>718179.62553341675</v>
       </c>
       <c r="DN33" s="2">
         <f t="shared" si="180"/>
-        <v>13798961.410781223</v>
+        <v>732543.21804408508</v>
       </c>
     </row>
     <row r="34" spans="2:118" x14ac:dyDescent="0.2">
@@ -5061,31 +5061,31 @@
       </c>
       <c r="AX34" s="7">
         <f t="shared" ref="AX34" si="194">AX33/AX35</f>
-        <v>5.2778362469250677</v>
+        <v>5.3366730744398092</v>
       </c>
       <c r="AY34" s="7">
         <f t="shared" ref="AY34" si="195">AY33/AY35</f>
-        <v>7.1862980288838871</v>
+        <v>7.2909966905652421</v>
       </c>
       <c r="AZ34" s="7">
         <f t="shared" ref="AZ34" si="196">AZ33/AZ35</f>
-        <v>9.5444566554962993</v>
+        <v>9.7120187276717527</v>
       </c>
       <c r="BA34" s="7">
         <f t="shared" ref="BA34" si="197">BA33/BA35</f>
-        <v>12.469963682151707</v>
+        <v>12.721502191125863</v>
       </c>
       <c r="BB34" s="7">
         <f t="shared" ref="BB34" si="198">BB33/BB35</f>
-        <v>14.71226217122012</v>
+        <v>15.074071526145122</v>
       </c>
       <c r="BC34" s="7">
         <f t="shared" ref="BC34" si="199">BC33/BC35</f>
-        <v>17.344991305701477</v>
+        <v>17.838005648115576</v>
       </c>
       <c r="BD34" s="7">
         <f t="shared" ref="BD34" si="200">BD33/BD35</f>
-        <v>20.441735556081937</v>
+        <v>21.09056356841554</v>
       </c>
     </row>
     <row r="35" spans="2:118" x14ac:dyDescent="0.2">
@@ -6175,7 +6175,7 @@
         <v>76</v>
       </c>
       <c r="BG43" s="13">
-        <v>0.10885</v>
+        <v>0.108885</v>
       </c>
     </row>
     <row r="44" spans="2:118" x14ac:dyDescent="0.2">
@@ -6183,7 +6183,7 @@
         <v>75</v>
       </c>
       <c r="BG44" s="13">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="45" spans="2:118" x14ac:dyDescent="0.2">
@@ -6251,7 +6251,7 @@
         <v>2657</v>
       </c>
       <c r="R45" s="4">
-        <f t="shared" ref="Q45:W45" si="259">+Q45+R33</f>
+        <f t="shared" ref="R45:V45" si="259">+Q45+R33</f>
         <v>9673.1821999999993</v>
       </c>
       <c r="S45" s="4">
@@ -6285,37 +6285,37 @@
       </c>
       <c r="AX45" s="2">
         <f>+AW45+AX33</f>
-        <v>124133.12733746253</v>
+        <v>124731.79205742502</v>
       </c>
       <c r="AY45" s="2">
         <f t="shared" ref="AY45:BD45" si="260">+AX45+AY33</f>
-        <v>197253.7097813561</v>
+        <v>198917.68338392634</v>
       </c>
       <c r="AZ45" s="2">
         <f t="shared" si="260"/>
-        <v>294368.55625103094</v>
+        <v>297737.47393798642</v>
       </c>
       <c r="BA45" s="2">
         <f t="shared" si="260"/>
-        <v>421250.43671692454</v>
+        <v>427178.75873269211</v>
       </c>
       <c r="BB45" s="2">
         <f t="shared" si="260"/>
-        <v>570947.70430908923</v>
+        <v>580557.43651121878</v>
       </c>
       <c r="BC45" s="2">
         <f t="shared" si="260"/>
-        <v>747432.99084460177</v>
+        <v>762059.14398079482</v>
       </c>
       <c r="BD45" s="2">
         <f t="shared" si="260"/>
-        <v>955427.65012773545</v>
+        <v>976655.62828942295</v>
       </c>
       <c r="BF45" t="s">
         <v>77</v>
       </c>
       <c r="BG45" s="13">
-        <v>7.0000000000000007E-2</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="46" spans="2:118" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -6353,7 +6353,7 @@
       </c>
       <c r="BG46" s="2">
         <f>NPV(BG43,AW33:DN33)+Main!K5-Main!K6</f>
-        <v>2765371.2870063344</v>
+        <v>1615818.7005128588</v>
       </c>
     </row>
     <row r="47" spans="2:118" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -6385,7 +6385,7 @@
       <c r="S47" s="4"/>
       <c r="BG47" s="1">
         <f>+BG46/Main!K3</f>
-        <v>271.43416637282434</v>
+        <v>158.60018654425392</v>
       </c>
     </row>
     <row r="48" spans="2:118" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -6448,7 +6448,7 @@
       </c>
       <c r="BG49" s="22">
         <f>(BG47/140.8)-1</f>
-        <v>0.92779947707971822</v>
+        <v>0.12642177943362154</v>
       </c>
     </row>
     <row r="50" spans="2:59" s="2" customFormat="1" x14ac:dyDescent="0.2">

--- a/AMZN.xlsx
+++ b/AMZN.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Michael\Desktop\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C54BAD0-3017-4957-ADAC-847E5359B4B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00E3D59E-75A2-4A9D-88EE-5E2558434F5C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{319C79D3-530A-422D-B7D4-1569BBD88715}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{319C79D3-530A-422D-B7D4-1569BBD88715}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -853,7 +853,7 @@
   <dimension ref="J2:L11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K6" sqref="K6"/>
+      <selection activeCell="K3" sqref="K3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -866,7 +866,7 @@
         <v>1</v>
       </c>
       <c r="K2" s="1">
-        <v>140.80000000000001</v>
+        <v>142.1</v>
       </c>
       <c r="L2" s="21">
         <v>44779</v>
@@ -889,7 +889,7 @@
       </c>
       <c r="K4" s="2">
         <f>K3*K2</f>
-        <v>1434470.4000000001</v>
+        <v>1447714.8</v>
       </c>
       <c r="L4" s="3"/>
     </row>
@@ -922,7 +922,7 @@
       </c>
       <c r="K7" s="2">
         <f>K4-K5+K6</f>
-        <v>1440284.4000000001</v>
+        <v>1453528.8</v>
       </c>
       <c r="L7" s="3"/>
     </row>
@@ -948,10 +948,10 @@
   <dimension ref="A1:DN66"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="AQ4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="AQ19" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="BA30" sqref="BA30"/>
+      <selection pane="bottomRight" activeCell="BG46" sqref="BG46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
